--- a/resources/prais2023.xlsx
+++ b/resources/prais2023.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Projects\PRAiS2\xlsx-to-edn\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4010F7-8F39-4EC6-930D-A8CDBBAACFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C78BC3-E200-4492-865A-DAE9184D4161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1140" windowWidth="21923" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="1965" windowWidth="35805" windowHeight="19635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -957,15 +961,16 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,7 +1002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1061,7 +1066,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1098,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1157,7 +1162,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1189,7 +1194,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1221,7 +1226,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1253,7 +1258,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1317,7 +1322,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
